--- a/output/GAchart.xlsx
+++ b/output/GAchart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:DQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,406 @@
           <t>Task_40</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Task_41</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_42</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Task_43</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Task_44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Task_45</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Task_46</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Task_47</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Task_48</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Task_49</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Task_50</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_51</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Task_52</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Task_53</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Task_54</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Task_55</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Task_56</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Task_57</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Task_58</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Task_59</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Task_60</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_61</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Task_62</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Task_63</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Task_64</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Task_65</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Task_66</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Task_67</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Task_69</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Task_70</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Task_71</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>Task_72</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Task_73</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Task_74</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>Task_75</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>Task_76</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_77</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>Task_78</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>Task_79</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>Task_80</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>Task_81</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>Task_82</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>Task_83</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Task_84</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>Task_85</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Task_86</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_87</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>Task_88</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>Task_89</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>Task_90</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>Task_91</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>Task_92</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>Task_93</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_94</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>Task_95</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>Task_96</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>Task_97</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Task_98</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>Task_99</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>Task_100</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>Task_101</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>Task_102</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_103</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>Task_104</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>Task_105</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>Task_106</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>Task_107</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>Task_108</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>Task_109</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Task_110</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>Task_111</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>Task_112</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_113</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>Task_114</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>Task_115</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>Task_116</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>Task_117</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>Task_118</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>Task_119</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>Task_120</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -655,28 +1055,28 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.5072</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25.3678</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>24.8605</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7294</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.5727</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -706,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.0613</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -718,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1097</v>
+        <v>19.7869</v>
       </c>
       <c r="AB3" t="n">
-        <v>23.4417</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -733,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.2493</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -745,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.1966</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>13.9523</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -760,6 +1160,246 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>16.7428</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>21.309</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>20.5479</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>22.5774</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -776,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5523</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -818,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>13.4228</v>
       </c>
       <c r="S4" t="n">
-        <v>22.3152</v>
+        <v>0.6292</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>17.198</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -836,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>7.3406</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>7.5503</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -878,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>4.4044</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -887,6 +1527,246 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19.0856</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>19.0856</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>9.0185</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>15.9396</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>20.9732</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>20.5537</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>18.2466</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>18.2466</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>9.437900000000001</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>2.5168</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>18.8758</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>16.7785</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>2.7265</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>5.8725</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -918,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15.5945</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -939,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25.9374</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.5374</v>
       </c>
       <c r="R5" t="n">
-        <v>19.7098</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -957,28 +1837,28 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16.8941</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>9.3134</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.6591</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>21.4266</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>26.7832</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -990,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>18.6073</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1011,10 +1891,250 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>16.6338</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.3134</v>
+        <v>1.6916</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>19.735</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>25.0916</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1024,7 +2144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>26.3345</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1036,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3.5587</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1066,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9116</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1081,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>14.5852</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1111,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>20.6406</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>2.847</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1123,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>27.758</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1135,12 +2255,252 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>74.74930000000001</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>55.516</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>58.363</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>22.7758</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>4.9822</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>71.17440000000001</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>37.0107</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>54.0925</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>17.0819</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>37.7224</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>35.5872</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>7.1174</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1151,10 +2511,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.819</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>20.4678</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1169,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.055</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1187,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>53.8373</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1262,12 +2622,252 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>95.5166</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
       </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.9747</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>90.6433</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>9.746600000000001</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>39.961</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>57.5049</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>33.1384</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>63.3528</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>2.924</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1317,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>72.1063</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.9753</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1341,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>131.8865</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1395,6 +2995,246 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1414,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.1041</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>25.3521</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1429,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>23.2394</v>
+        <v>44.2225</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1501,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>9.9857</v>
       </c>
       <c r="AI9" t="n">
-        <v>26.0563</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -1522,6 +3362,246 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>58.4879</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>36.3766</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>66.3338</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>52.0685</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>14.2653</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>48.5021</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>64.90730000000001</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>31.3837</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1625,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>66.90779999999999</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1634,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>87.5831</v>
       </c>
       <c r="AK10" t="n">
-        <v>12.6582</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -1649,6 +3729,246 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>83.1486</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>14.4124</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>49.8891</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>110.8647</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>14.1988</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1689,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>33.6658</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1728,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.693</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1755,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>45.977</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -1767,16 +4087,256 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>14.8749</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.6078</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>53.616</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>100.9975</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>6.2344</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>107.2319</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>26.1845</v>
       </c>
     </row>
     <row r="12">
@@ -1801,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>53.2446</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1903,6 +4463,246 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>28.2862</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>32.4459</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>49.0849</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>59.0682</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>35.7737</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>64.0599</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.8319</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>48.2529</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>73.72790000000001</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1940,13 +4740,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>61.8785</v>
       </c>
       <c r="L13" t="n">
-        <v>49.8442</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>93.92270000000001</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2030,6 +4830,246 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>4.4199</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>74.0331</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>59.6685</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>107.1823</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>68.4667</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2076,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>17.3578</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2121,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>100.7874</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>66.5381</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2157,6 +5197,246 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41.4658</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>45.323</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>56.8949</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>53.0376</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>30.8582</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>5.7859</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>55.9306</v>
+      </c>
+      <c r="DQ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2206,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>70.7692</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2221,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.6976</v>
+        <v>31.7949</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>35.8974</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2239,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>33.8462</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2251,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>22.787</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>56.9676</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2284,6 +5564,246 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>34.8718</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>89.2308</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>45.1282</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>81.0256</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ15" t="n">
         <v>0</v>
       </c>
     </row>
